--- a/alphalib/alphalib.xlsx
+++ b/alphalib/alphalib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,21 +1199,6 @@
           <t>trailingPegRatio</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>full_name</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>isin</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1251,7 +1236,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>united states</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1312,7 +1297,7 @@
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>169.6827</v>
+        <v>167.9301</v>
       </c>
       <c r="AA2" t="n">
         <v>-0.68</v>
@@ -1407,14 +1392,14 @@
       </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>2.417</v>
+        <v>2.389</v>
       </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="n">
-        <v>1233.537</v>
+        <v>1219.615</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.23287731</v>
+        <v>-0.21191555</v>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="n">
@@ -1441,7 +1426,7 @@
         <v>1640908800</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.5611999600000001</v>
+        <v>0.57826</v>
       </c>
       <c r="BT2" t="n">
         <v>-5278000128</v>
@@ -1453,7 +1438,7 @@
         <v>2.055</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.03393376</v>
+        <v>-0.029906034</v>
       </c>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="n">
@@ -1479,7 +1464,7 @@
         <v>1.382269</v>
       </c>
       <c r="CG2" t="n">
-        <v>146790957056</v>
+        <v>145134223360</v>
       </c>
       <c r="CH2" t="n">
         <v>2</v>
@@ -1502,17 +1487,17 @@
         <v>-0.671</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.658783</v>
+        <v>1.6895659</v>
       </c>
       <c r="CQ2" t="n">
         <v>1659052800</v>
       </c>
       <c r="CR2" t="n">
-        <v>-4.09</v>
+        <v>-4.16</v>
       </c>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="n">
-        <v>40.69129</v>
+        <v>40.271008</v>
       </c>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="n">
@@ -1527,13 +1512,13 @@
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="n">
-        <v>170.47</v>
+        <v>167.2</v>
       </c>
       <c r="DB2" t="n">
-        <v>170</v>
+        <v>167.2</v>
       </c>
       <c r="DC2" t="n">
-        <v>178.85815</v>
+        <v>178.48015</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
@@ -1543,27 +1528,27 @@
       </c>
       <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="n">
-        <v>170.7899</v>
+        <v>168.8799</v>
       </c>
       <c r="DH2" t="inlineStr"/>
       <c r="DI2" t="n">
-        <v>6592680</v>
+        <v>6012770</v>
       </c>
       <c r="DJ2" t="n">
-        <v>170.47</v>
+        <v>167.2</v>
       </c>
       <c r="DK2" t="n">
-        <v>147.7384</v>
+        <v>148.9542</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>170</v>
+        <v>167.2</v>
       </c>
       <c r="DN2" t="inlineStr"/>
       <c r="DO2" t="n">
-        <v>6592680</v>
+        <v>6012770</v>
       </c>
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr"/>
@@ -1574,7 +1559,7 @@
       <c r="DT2" t="inlineStr"/>
       <c r="DU2" t="inlineStr"/>
       <c r="DV2" t="n">
-        <v>169.18</v>
+        <v>165.8</v>
       </c>
       <c r="DW2" t="inlineStr">
         <is>
@@ -1582,30 +1567,30 @@
         </is>
       </c>
       <c r="DX2" t="n">
-        <v>992538</v>
+        <v>1649070</v>
       </c>
       <c r="DY2" t="inlineStr"/>
       <c r="DZ2" t="inlineStr"/>
       <c r="EA2" t="inlineStr"/>
       <c r="EB2" t="n">
-        <v>100759453696</v>
+        <v>102629302272</v>
       </c>
       <c r="EC2" t="inlineStr"/>
       <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="n">
-        <v>9770350</v>
+        <v>9610067</v>
       </c>
       <c r="EF2" t="n">
-        <v>169.18</v>
+        <v>165.8</v>
       </c>
       <c r="EG2" t="n">
-        <v>169.97</v>
+        <v>168.11</v>
       </c>
       <c r="EH2" t="n">
         <v>800</v>
       </c>
       <c r="EI2" t="n">
-        <v>992538</v>
+        <v>1649070</v>
       </c>
       <c r="EJ2" t="n">
         <v>233.94</v>
@@ -1616,24 +1601,24 @@
         <v>113.02</v>
       </c>
       <c r="EN2" t="n">
-        <v>169.91</v>
+        <v>167.96</v>
       </c>
       <c r="EO2" t="b">
         <v>0</v>
       </c>
       <c r="EP2" t="inlineStr"/>
       <c r="EQ2" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="ER2" t="n">
-        <v>170.7899</v>
+        <v>168.8799</v>
       </c>
       <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="n">
-        <v>169.6827</v>
+        <v>167.9301</v>
       </c>
       <c r="EU2" t="n">
-        <v>169.95</v>
+        <v>167.17</v>
       </c>
       <c r="EV2" t="inlineStr">
         <is>
@@ -1642,21 +1627,6 @@
       </c>
       <c r="EW2" t="n">
         <v>6.5305</v>
-      </c>
-      <c r="EX2" t="inlineStr">
-        <is>
-          <t>Boeing</t>
-        </is>
-      </c>
-      <c r="EY2" t="inlineStr">
-        <is>
-          <t>Boeing Co</t>
-        </is>
-      </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>US0970231058</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/alphalib/alphalib.xlsx
+++ b/alphalib/alphalib.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stock_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stock_dividends" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stock_financials" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW2"/>
+  <dimension ref="A1:EX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,130 +1079,135 @@
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>trailingPE</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
           <t>regularMarketVolume</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>lastMarket</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>maxSupply</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>openInterest</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>marketCap</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>volumeAllCurrencies</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>strikePrice</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>averageVolume</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>dayLow</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>ask</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>askSize</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekHigh</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>fromCurrency</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>fiveYearAvgDividendYield</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekLow</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>bid</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>tradeable</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>dividendYield</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>bidSize</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>dayHigh</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>coinMarketCapLink</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>regularMarketPrice</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>preMarketPrice</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>logo_url</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>trailingPegRatio</t>
         </is>
@@ -1203,35 +1216,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60606-1596</t>
+          <t>48265-3000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>142000</v>
+        <v>157000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Boeing Company, together with its subsidiaries, designs, develops, manufactures, sales, services, and supports commercial jetliners, military aircraft, satellites, missile defense, human space flight and launch systems, and services worldwide. The company operates through four segments: Commercial Airplanes; Defense, Space &amp; Security; Global Services; and Boeing Capital. The Commercial Airplanes segment provides commercial jet aircraft for passenger and cargo requirements, as well as fleet support services. The Defense, Space &amp; Security segment engages in the research, development, production, and modification of manned and unmanned military aircraft and weapons systems; strategic defense and intelligence systems, which include strategic missile and defense systems, command, control, communications, computers, intelligence, surveillance and reconnaissance, cyber and information solutions, and intelligence systems; and satellite systems, such as government and commercial satellites, and space exploration. The Global Services segment offers products and services, including supply chain and logistics management, engineering, maintenance and modifications, upgrades and conversions, spare parts, pilot and maintenance training systems and services, technical and maintenance documents, and data analytics and digital services to commercial and defense customers. The Boeing Capital segment offers financing services and manages financing exposure for a portfolio of equipment under operating leases, sales-type/finance leases, notes and other receivables, assets held for sale or re-lease, and investments. The company was incorporated in 1916 and is based in Chicago, Illinois.</t>
+          <t>General Motors Company designs, builds, and sells trucks, crossovers, cars, and automobile parts and accessories in North America, the Asia Pacific, the Middle East, Africa, South America, the United States, and China. The company operates through GM North America, GM International, Cruise, and GM Financial segments. It markets its vehicles primarily under the Buick, Cadillac, Chevrolet, GMC, Holden, Baojun, and Wuling brand names. The company also sells trucks, crossovers, cars, and purpose-built vehicles to dealers for consumer retail sales, as well as to fleet customers, including daily rental car companies, commercial fleet customers, leasing companies, and governments. In addition, it offers safety and security services for retail and fleet customers, including automatic crash response, emergency services, roadside assistance, crisis assist, stolen vehicle assistance, and turn-by-turn navigation; and connected services comprising mobile applications for owners to remotely control their vehicles and electric vehicle owners to locate charging stations, on-demand vehicle diagnostics, smart driver, marketplace in-vehicle commerce, in-vehicle voice, voice assistant, navigation and app ecosystem, connected navigation, SiriusXM with 360L, and 4G LTE wireless connectivity, as well as develops and commercializes autonomous vehicle technology. Further, the company provides automotive financing and insurance services; and software-enabled services and subscriptions. General Motors Company was founded in 1908 and is headquartered in Detroit, Michigan.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>312 544 2000</t>
+          <t>313-667-1500</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1246,7 +1259,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.boeing.com</t>
+          <t>https://www.gm.com</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -1254,76 +1267,90 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>100 North Riverside Plaza</t>
+          <t>300 Renaissance Center</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00196</v>
+        <v>0.12437</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.08689000500000001</v>
+        <v>0.06655</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05994</v>
+        <v>0.13551</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2680999936</v>
+        <v>11987999744</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.019</v>
+        <v>0.047</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.03164</v>
+        <v>0.07926999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>119000000</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>16428999680</v>
+      </c>
+      <c r="U2" t="n">
+        <v>29</v>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>5190000000</v>
+        <v>18079000000</v>
       </c>
       <c r="X2" t="n">
-        <v>742499968</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>-4729750016</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>47.5</v>
+      </c>
       <c r="Z2" t="n">
-        <v>167.9301</v>
+        <v>39.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.68</v>
+        <v>-0.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.25</v>
+        <v>1.147</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.008450001</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+        <v>0.02642</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>52.16</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>163.958</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.13627</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>95</v>
+      </c>
       <c r="AI2" t="n">
-        <v>11448000512</v>
+        <v>21533999104</v>
       </c>
       <c r="AJ2" t="n">
-        <v>57200001024</v>
+        <v>112105996288</v>
       </c>
       <c r="AK2" t="n">
-        <v>60743000064</v>
+        <v>132100997120</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.279</v>
+        <v>14.769</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -1331,12 +1358,14 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>102.745</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
+        <v>0.853</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2</v>
+      </c>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>NYQ</t>
@@ -1344,12 +1373,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Boeing Company (The)</t>
+          <t>General Motors Company</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>The Boeing Company</t>
+          <t>General Motors Company</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -1377,12 +1406,12 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>finmb_370857</t>
+          <t>finmb_61206100</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1392,57 +1421,59 @@
       </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>2.389</v>
+        <v>1.157</v>
       </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="n">
-        <v>1219.615</v>
+        <v>9.305</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.21191555</v>
+        <v>-0.17600662</v>
       </c>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="n">
-        <v>4.17</v>
+        <v>6.29</v>
       </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="n">
-        <v>593811008</v>
+        <v>1458050048</v>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="n">
-        <v>-25.087</v>
+        <v>42.636</v>
       </c>
       <c r="BO2" t="n">
-        <v>10417101</v>
+        <v>25891810</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="n">
         <v>1640908800</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.57826</v>
+        <v>0.83529997</v>
       </c>
       <c r="BT2" t="n">
-        <v>-5278000128</v>
+        <v>7722999808</v>
       </c>
       <c r="BU2" t="n">
-        <v>-8.285</v>
+        <v>5.44</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.055</v>
+        <v>0.38</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.029906034</v>
-      </c>
-      <c r="BX2" t="inlineStr"/>
+        <v>-0.056043804</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.931138</v>
+      </c>
       <c r="BY2" t="n">
-        <v>0.00099</v>
+        <v>0.04867</v>
       </c>
       <c r="BZ2" t="n">
         <v>1703980800</v>
@@ -1452,59 +1483,53 @@
         <v>1656547200</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="CD2" t="n">
         <v>1656547200</v>
       </c>
       <c r="CE2" t="n">
-        <v>548978426</v>
+        <v>1385292315</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.382269</v>
+        <v>1.284261</v>
       </c>
       <c r="CG2" t="n">
-        <v>145134223360</v>
+        <v>152877547520</v>
       </c>
       <c r="CH2" t="n">
         <v>2</v>
       </c>
       <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="n">
-        <v>865814400</v>
-      </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="n">
-        <v>1581552000</v>
+        <v>1583366400</v>
       </c>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="n">
-        <v>-0.671</v>
+        <v>-0.403</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.6895659</v>
+        <v>0.43818432</v>
       </c>
       <c r="CQ2" t="n">
         <v>1659052800</v>
       </c>
       <c r="CR2" t="n">
-        <v>-4.16</v>
+        <v>1.95</v>
       </c>
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="n">
-        <v>40.271008</v>
+        <v>6.311606</v>
       </c>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="n">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
       <c r="CW2" t="n">
-        <v>10608347</v>
+        <v>30007768</v>
       </c>
       <c r="CX2" t="n">
         <v>0</v>
@@ -1512,13 +1537,13 @@
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="n">
-        <v>167.2</v>
+        <v>38.72</v>
       </c>
       <c r="DB2" t="n">
-        <v>167.2</v>
+        <v>39.24</v>
       </c>
       <c r="DC2" t="n">
-        <v>178.48015</v>
+        <v>45.4797</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
@@ -1528,38 +1553,38 @@
       </c>
       <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="n">
-        <v>168.8799</v>
+        <v>40.2796</v>
       </c>
       <c r="DH2" t="inlineStr"/>
       <c r="DI2" t="n">
-        <v>6012770</v>
+        <v>12446200</v>
       </c>
       <c r="DJ2" t="n">
-        <v>167.2</v>
+        <v>38.72</v>
       </c>
       <c r="DK2" t="n">
-        <v>148.9542</v>
+        <v>34.7002</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>167.2</v>
+        <v>39.24</v>
       </c>
       <c r="DN2" t="inlineStr"/>
       <c r="DO2" t="n">
-        <v>6012770</v>
+        <v>12446200</v>
       </c>
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="n">
-        <v>1581552000</v>
+        <v>1583366400</v>
       </c>
       <c r="DT2" t="inlineStr"/>
       <c r="DU2" t="inlineStr"/>
       <c r="DV2" t="n">
-        <v>165.8</v>
+        <v>39.09</v>
       </c>
       <c r="DW2" t="inlineStr">
         <is>
@@ -1567,66 +1592,1284 @@
         </is>
       </c>
       <c r="DX2" t="n">
-        <v>1649070</v>
-      </c>
-      <c r="DY2" t="inlineStr"/>
+        <v>7.2977943</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>23278687</v>
+      </c>
       <c r="DZ2" t="inlineStr"/>
       <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="n">
-        <v>102629302272</v>
-      </c>
-      <c r="EC2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="n">
+        <v>57884585984</v>
+      </c>
       <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="n">
-        <v>9610067</v>
-      </c>
+      <c r="EE2" t="inlineStr"/>
       <c r="EF2" t="n">
-        <v>165.8</v>
+        <v>14711085</v>
       </c>
       <c r="EG2" t="n">
-        <v>168.11</v>
+        <v>39.09</v>
       </c>
       <c r="EH2" t="n">
-        <v>800</v>
+        <v>39.7</v>
       </c>
       <c r="EI2" t="n">
-        <v>1649070</v>
+        <v>4000</v>
       </c>
       <c r="EJ2" t="n">
-        <v>233.94</v>
-      </c>
-      <c r="EK2" t="inlineStr"/>
+        <v>23278687</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>67.20999999999999</v>
+      </c>
       <c r="EL2" t="inlineStr"/>
-      <c r="EM2" t="n">
-        <v>113.02</v>
-      </c>
+      <c r="EM2" t="inlineStr"/>
       <c r="EN2" t="n">
-        <v>167.96</v>
-      </c>
-      <c r="EO2" t="b">
+        <v>30.33</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="EP2" t="b">
         <v>0</v>
       </c>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="n">
-        <v>1100</v>
-      </c>
+      <c r="EQ2" t="inlineStr"/>
       <c r="ER2" t="n">
-        <v>168.8799</v>
-      </c>
-      <c r="ES2" t="inlineStr"/>
-      <c r="ET2" t="n">
-        <v>167.9301</v>
-      </c>
+        <v>2900</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>40.2796</v>
+      </c>
+      <c r="ET2" t="inlineStr"/>
       <c r="EU2" t="n">
-        <v>167.17</v>
-      </c>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/boeing.com</t>
-        </is>
-      </c>
-      <c r="EW2" t="n">
-        <v>6.5305</v>
+        <v>39.7</v>
+      </c>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>https://logo.clearbit.com/gm.com</t>
+        </is>
+      </c>
+      <c r="EX2" t="n">
+        <v>1.392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>41712</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>41796</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>41890</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>41981</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>42163</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>42257</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>42354</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>42438</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>42529</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>42709</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>42802</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>42893</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>42985</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43076</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43167</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43349</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43440</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43531</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43622</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43713</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43804</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43895</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Research Development</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Effect Of Accounting Charges</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Income Before Tax</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Minority Interest</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Net Income</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Selling General Administrative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ebit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Operating Income</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Other Operating Expenses</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Extraordinary Items</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Non Recurring</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Other Items</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Income Tax Expense</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operating Expenses</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Cost Of Revenue</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Total Other Income Expense Net</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Discontinued Operations</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Net Income From Continuing Ops</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Net Income Applicable To Common Shares</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>12716000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6071000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10019000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6645000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18079000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11434000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11434000000</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-950000000</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>2771000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>127004000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>115570000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>108925000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1282000000</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>9945000000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9837000000</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>8095000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4647000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6427000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5943000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14502000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8559000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8559000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>-1098000000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>1774000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>122485000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>113926000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>107983000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-464000000</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>6321000000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6247000000</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>7436000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4165000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6732000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7694000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14138000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6444000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6444000000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>-782000000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>769000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>137237000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>130793000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>123099000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>992000000</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>6667000000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6581000000</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>8549000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3917000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8014000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7985000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14278000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6293000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6293000000</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>-655000000</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>474000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>147049000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>140756000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>132771000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2256000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-70000000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8075000000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7916000000</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>General Motors</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>General Motors Company</t>
+        </is>
       </c>
     </row>
   </sheetData>
